--- a/StuffScaling.xlsx
+++ b/StuffScaling.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,21 +653,21 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
         <v>0.8</v>
@@ -684,22 +684,22 @@
       <c r="G9">
         <v>1.3</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B10">
         <f>B$9+H10</f>
-        <v>0.9</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C14" si="0">C$9+I10</f>
@@ -724,7 +724,7 @@
         <v>0.9</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F14" si="3">F$9+L10</f>
+        <f t="shared" ref="F10" si="3">F$9+L10</f>
         <v>0.8</v>
       </c>
       <c r="G10">
@@ -759,7 +759,7 @@
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B14" si="5">B$9+H11</f>
-        <v>0.70000000000000007</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -774,7 +774,7 @@
         <v>0.8</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:G14" si="6">F$9+L11</f>
+        <f t="shared" ref="F11:F14" si="6">F$9+L11</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="G11">
@@ -809,7 +809,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -859,7 +859,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="5"/>
-        <v>0.70000000000000007</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>

--- a/StuffScaling.xlsx
+++ b/StuffScaling.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
         <v>0.8</v>
@@ -709,11 +709,11 @@
       </c>
       <c r="B10">
         <f>B$9+H10</f>
-        <v>0.79999999999999993</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C14" si="0">C$9+I10</f>
-        <v>0.8</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D14" si="1">D$9+J10</f>
@@ -732,10 +732,10 @@
         <v>1.3</v>
       </c>
       <c r="H10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B14" si="5">B$9+H11</f>
-        <v>0.6</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F14" si="6">F$9+L11</f>
@@ -791,7 +791,7 @@
         <v>-0.1</v>
       </c>
       <c r="K11">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="L11">
         <v>-0.1</v>
@@ -809,11 +809,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="5"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J12">
         <v>-0.1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="5"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
